--- a/dataset_analysis.xlsx
+++ b/dataset_analysis.xlsx
@@ -12,31 +12,40 @@
     <sheet name="df_col_types" sheetId="3" r:id="rId3"/>
     <sheet name="df_date_cols" sheetId="4" r:id="rId4"/>
     <sheet name="df_date_min_max" sheetId="5" r:id="rId5"/>
-    <sheet name="df_date_time_cols" sheetId="6" r:id="rId6"/>
+    <sheet name="df_head_df" sheetId="6" r:id="rId6"/>
     <sheet name="df_json_cols" sheetId="7" r:id="rId7"/>
     <sheet name="df_null" sheetId="8" r:id="rId8"/>
     <sheet name="df_shape" sheetId="9" r:id="rId9"/>
-    <sheet name="df_unique" sheetId="10" r:id="rId10"/>
-    <sheet name="df_xml_cols" sheetId="11" r:id="rId11"/>
-    <sheet name="head_df" sheetId="12" r:id="rId12"/>
+    <sheet name="df_ultimate" sheetId="10" r:id="rId10"/>
+    <sheet name="df_unique" sheetId="11" r:id="rId11"/>
+    <sheet name="df_xml_cols" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
-  <si>
-    <t>event_id</t>
-  </si>
-  <si>
-    <t>event_time</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>event.payload</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="67">
+  <si>
+    <t>adjective</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>modifier</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>count</t>
@@ -72,13 +81,19 @@
     <t>max</t>
   </si>
   <si>
-    <t>b9de71c5c3cc4cd7a97e50b832106e5a</t>
-  </si>
-  <si>
-    <t>2013-05-25 15:22:54</t>
-  </si>
-  <si>
-    <t>{"event_name":"test_assignment","platform":"server","parameter_name":"test_assignment","parameter_value":"0"}</t>
+    <t>reflective</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>2014-01-15 21:36:09</t>
+  </si>
+  <si>
+    <t>storage_unit</t>
+  </si>
+  <si>
+    <t>apparatus</t>
   </si>
   <si>
     <t>object</t>
@@ -99,10 +114,37 @@
     <t>diff_dates</t>
   </si>
   <si>
-    <t>col_date_time</t>
-  </si>
-  <si>
-    <t>created_at</t>
+    <t>fuzzy</t>
+  </si>
+  <si>
+    <t>industrial-strength</t>
+  </si>
+  <si>
+    <t>contraption</t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>2013-05-14 05:20:50</t>
+  </si>
+  <si>
+    <t>2014-02-04 19:28:32</t>
+  </si>
+  <si>
+    <t>carrying_case</t>
+  </si>
+  <si>
+    <t>refill</t>
+  </si>
+  <si>
+    <t>fuzzy contraption carrying_case</t>
+  </si>
+  <si>
+    <t>instrument refill</t>
+  </si>
+  <si>
+    <t>industrial-strength module</t>
   </si>
   <si>
     <t>col_with_json_val</t>
@@ -114,34 +156,76 @@
     <t>cols</t>
   </si>
   <si>
+    <t>rechargable</t>
+  </si>
+  <si>
+    <t>prize-winning</t>
+  </si>
+  <si>
+    <t>aerodynamic</t>
+  </si>
+  <si>
+    <t>extra-strength</t>
+  </si>
+  <si>
+    <t>analog</t>
+  </si>
+  <si>
+    <t>matte</t>
+  </si>
+  <si>
+    <t>organic</t>
+  </si>
+  <si>
+    <t>glossy</t>
+  </si>
+  <si>
+    <t>miniature</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>gadget</t>
+  </si>
+  <si>
+    <t>mechanism</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>widget</t>
+  </si>
+  <si>
+    <t>dongle</t>
+  </si>
+  <si>
+    <t>charger</t>
+  </si>
+  <si>
+    <t>opener</t>
+  </si>
+  <si>
+    <t>wrapper</t>
+  </si>
+  <si>
+    <t>how-to-manual</t>
+  </si>
+  <si>
+    <t>cleaner</t>
+  </si>
+  <si>
+    <t>warmer</t>
+  </si>
+  <si>
     <t>unique_val_holding_cols</t>
   </si>
   <si>
     <t>col_with_xml_val</t>
-  </si>
-  <si>
-    <t>23267713c9ea44419331731f50b6a8db</t>
-  </si>
-  <si>
-    <t>1b7822fa7b854e01970218ae8f721fe0</t>
-  </si>
-  <si>
-    <t>2017-06-26 11:23:39</t>
-  </si>
-  <si>
-    <t>2017-06-27 10:46:39</t>
-  </si>
-  <si>
-    <t>2017-06-27 11:15:39</t>
-  </si>
-  <si>
-    <t>{"event_name":"view_item","platform":"android","parameter_name":"item_id","parameter_value":"3526"}</t>
-  </si>
-  <si>
-    <t>{"event_name":"view_item","platform":"android","parameter_name":"item_id","parameter_value":"1514"}</t>
-  </si>
-  <si>
-    <t>{"event_name":"view_item","platform":"android","parameter_name":"item_id","parameter_value":"3712"}</t>
   </si>
 </sst>
 </file>
@@ -504,13 +588,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,120 +607,177 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>853640</v>
+        <v>1926</v>
       </c>
       <c r="C2">
-        <v>853640</v>
+        <v>2198</v>
       </c>
       <c r="D2">
-        <v>853640</v>
+        <v>2198</v>
       </c>
       <c r="E2">
-        <v>853640</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>2198</v>
+      </c>
+      <c r="F2">
+        <v>1432</v>
+      </c>
+      <c r="G2">
+        <v>2198</v>
+      </c>
+      <c r="H2">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>428364</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>266020</v>
-      </c>
-      <c r="E3">
-        <v>11891</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>2198</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>168</v>
+      </c>
+      <c r="C5">
+        <v>239</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>186</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>1991.293903548681</v>
+      </c>
+      <c r="H6">
+        <v>98.15742038216561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>1163.964427702539</v>
+      </c>
+      <c r="H7">
+        <v>156.0599370489352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>981.25</v>
+      </c>
+      <c r="H9">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E10">
+        <v>2008</v>
+      </c>
+      <c r="H10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E11">
+        <v>2994.5</v>
+      </c>
+      <c r="H11">
+        <v>115.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>2256</v>
-      </c>
-      <c r="E5">
-        <v>82693</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>148577.068861581</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>81385.65916823161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>78613</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>153956</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>217284</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>299977</v>
+      <c r="E12">
+        <v>3997</v>
+      </c>
+      <c r="H12">
+        <v>2250</v>
       </c>
     </row>
   </sheetData>
@@ -645,6 +786,320 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>0.08722741433021806</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>0.08515057113187954</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>0.07943925233644859</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>0.07943925233644859</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>0.07943925233644859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>0.07943925233644859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>0.07943925233644859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>0.07684319833852545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>0.07372793354101766</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>0.07217030114226376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>0.07165109034267912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>0.0695742471443406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14">
+        <v>0.06645898234683281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>0.1087352138307552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16">
+        <v>0.1060054595086442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>0.1032757051865332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18">
+        <v>0.1023657870791629</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19">
+        <v>0.1010009099181074</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20">
+        <v>0.09827115559599636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21">
+        <v>0.09645131938125569</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22">
+        <v>0.09599636032757052</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>0.09417652411282984</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24">
+        <v>0.09372156505914468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>0.1298882681564246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26">
+        <v>0.1201117318435754</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27">
+        <v>0.1180167597765363</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28">
+        <v>0.1131284916201117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29">
+        <v>0.1103351955307263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30">
+        <v>0.1089385474860335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31">
+        <v>0.1019553072625698</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32">
+        <v>0.1005586592178771</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33">
+        <v>0.09706703910614525</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1"/>
   <sheetViews>
@@ -654,103 +1109,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2">
-        <v>178481</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3">
-        <v>178481</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4">
-        <v>178481</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -760,13 +1119,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,63 +1133,93 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>853640</v>
+        <v>1926</v>
       </c>
       <c r="C2">
-        <v>853640</v>
+        <v>2198</v>
       </c>
       <c r="D2">
-        <v>853640</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>2198</v>
+      </c>
+      <c r="E2">
+        <v>1432</v>
+      </c>
+      <c r="F2">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>428364</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>266020</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>11891</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>2198</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="C5">
-        <v>2256</v>
+        <v>239</v>
       </c>
       <c r="D5">
-        <v>82693</v>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>186</v>
+      </c>
+      <c r="F5">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -840,13 +1229,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -860,22 +1249,40 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -893,7 +1300,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -901,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -919,13 +1326,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -933,13 +1340,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>41342.39469907407</v>
+        <v>41327.60384259259</v>
       </c>
       <c r="C2" s="2">
-        <v>43252.99854166667</v>
+        <v>41695.99800925926</v>
       </c>
       <c r="D2" s="3">
-        <v>1910.603842592593</v>
+        <v>368.3941666666666</v>
       </c>
     </row>
   </sheetData>
@@ -949,23 +1356,105 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>2512</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>482</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3">
+        <v>35.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4">
+        <v>2446</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -975,23 +1464,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="2:2">
       <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1001,13 +1482,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1020,13 +1501,22 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1035,6 +1525,15 @@
         <v>0</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>766</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
     </row>
@@ -1053,10 +1552,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1064,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>853640</v>
+        <v>2198</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
